--- a/InputData/cost-outputs/DR/Discount Rate.xlsx
+++ b/InputData/cost-outputs/DR/Discount Rate.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DR Discount Rate</t>
   </si>
@@ -32,16 +32,10 @@
     <t>Secretaría de Hacienda y Crédito Público</t>
   </si>
   <si>
-    <t xml:space="preserve">Oficio circular No. 400.1.410.14.009 </t>
-  </si>
-  <si>
-    <t>http://www.hacienda.gob.mx/EGRESOS/ppi/Sistemas_inversion/oficio_tasa_social_de_descuento.pdf</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>This is the official discount rate used to evaluate all government projects.</t>
+    <t>Tasa Social de Descuento (TSD)</t>
+  </si>
+  <si>
+    <t>https://www.gob.mx/shcp/documentos/tasa-social-de-descuento-tsd</t>
   </si>
 </sst>
 </file>
@@ -97,14 +91,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,48 +404,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
         <v>2014</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -468,17 +458,17 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/InputData/cost-outputs/DR/Discount Rate.xlsx
+++ b/InputData/cost-outputs/DR/Discount Rate.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\cost-outputs\DR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23955" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DR Discount Rate</t>
   </si>
@@ -26,22 +31,52 @@
     <t>Discount Rate</t>
   </si>
   <si>
-    <t>Annual Perc</t>
-  </si>
-  <si>
-    <t>Secretaría de Hacienda y Crédito Público</t>
-  </si>
-  <si>
-    <t>Tasa Social de Descuento (TSD)</t>
-  </si>
-  <si>
-    <t>https://www.gob.mx/shcp/documentos/tasa-social-de-descuento-tsd</t>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Interagency Working Group on Social Cost of Carbon, United States Government</t>
+  </si>
+  <si>
+    <t>Technical Update of the Social Cost of Carbon for Regulatory Impact Analysis</t>
+  </si>
+  <si>
+    <t>https://www.whitehouse.gov/sites/default/files/omb/inforeg/scc-tsd-final-july-2015.pdf</t>
+  </si>
+  <si>
+    <t>Page 17, Table A1</t>
+  </si>
+  <si>
+    <t>of Social Cost of Carbon (in the SCoC variable), as well as the discount rate built into the health</t>
+  </si>
+  <si>
+    <t>damages values in the SCoHIbP Social Cost of Health Impacts by Pollutant variable.</t>
+  </si>
+  <si>
+    <t>We choose to use a 3% discount rate here, for consistency with the 3% rate used for the central estimate</t>
+  </si>
+  <si>
+    <t>This is the annual percentage rate by which future savings (e.g. fuel cost savings) are discounted when</t>
+  </si>
+  <si>
+    <t>making price-driven purchasing decisions in the current year. The value used should be one that is</t>
+  </si>
+  <si>
+    <t>reasonable for people who are looking to buy fuel-consuming capital equipment, such as industrial</t>
+  </si>
+  <si>
+    <t>equipment or building components. The model works in real dollars, so this rate should be the growth</t>
+  </si>
+  <si>
+    <t>in real value, not the growth in nominal value plus real value.</t>
+  </si>
+  <si>
+    <t>Annual Perc (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,16 +123,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -160,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,49 +438,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>2014</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" location="8" display="http://www.whitehouse.gov/omb/circulars_a094#8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -458,18 +541,18 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>3</v>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/cost-outputs/DR/Discount Rate.xlsx
+++ b/InputData/cost-outputs/DR/Discount Rate.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\cost-outputs\DR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/zzz_cost-outputs/DR/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAE3BB5-A11B-D44F-9D86-4E5702EC5576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23955" windowHeight="13605"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23960" windowHeight="13600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,27 +46,12 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Interagency Working Group on Social Cost of Carbon, United States Government</t>
-  </si>
-  <si>
-    <t>Technical Update of the Social Cost of Carbon for Regulatory Impact Analysis</t>
-  </si>
-  <si>
-    <t>https://www.whitehouse.gov/sites/default/files/omb/inforeg/scc-tsd-final-july-2015.pdf</t>
-  </si>
-  <si>
-    <t>Page 17, Table A1</t>
-  </si>
-  <si>
     <t>of Social Cost of Carbon (in the SCoC variable), as well as the discount rate built into the health</t>
   </si>
   <si>
     <t>damages values in the SCoHIbP Social Cost of Health Impacts by Pollutant variable.</t>
   </si>
   <si>
-    <t>We choose to use a 3% discount rate here, for consistency with the 3% rate used for the central estimate</t>
-  </si>
-  <si>
     <t>This is the annual percentage rate by which future savings (e.g. fuel cost savings) are discounted when</t>
   </si>
   <si>
@@ -71,12 +68,27 @@
   </si>
   <si>
     <t>Annual Perc (dimensionless)</t>
+  </si>
+  <si>
+    <t>Secretaría de Hacienda y Crédito Público</t>
+  </si>
+  <si>
+    <t>Tasa Social de Descuento (TSD)</t>
+  </si>
+  <si>
+    <t>https://www.gob.mx/shcp/documentos/tasa-social-de-descuento-tsd</t>
+  </si>
+  <si>
+    <t>Published 2015</t>
+  </si>
+  <si>
+    <t>We choose to use the official Mexican governmet 10% discount rate here, made consistent with</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,6 +239,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -262,6 +291,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,130 +483,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" location="8" display="http://www.whitehouse.gov/omb/circulars_a094#8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
